--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_21-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_21-14.xlsx
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>-2:0</t>
   </si>
   <si>
     <t>لزق حبوب</t>
@@ -4466,17 +4469,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4484,7 +4487,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4510,7 +4513,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4536,7 +4539,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4544,7 +4547,7 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
@@ -4562,7 +4565,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4570,7 +4573,7 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
@@ -4585,7 +4588,7 @@
     </row>
     <row r="137" ht="26.25" customHeight="1">
       <c r="K137" s="10">
-        <v>7201.0100000000002</v>
+        <v>7231.0100000000002</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
@@ -4593,19 +4596,19 @@
     </row>
     <row r="138" ht="16.5" customHeight="1">
       <c t="s" r="A138" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c t="s" r="F138" s="12">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="13"/>
       <c t="s" r="I138" s="14">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J138" s="14"/>
       <c r="K138" s="14"/>
